--- a/Listado_PROVEEDOR.xlsx
+++ b/Listado_PROVEEDOR.xlsx
@@ -107,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -124,102 +124,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="1" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="1" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="1" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="1" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
